--- a/store.xlsx
+++ b/store.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paris\Documents\Jane\git-demo-sbareh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paris\Documents\Jane\git-real\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Store</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Saphora</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sally's Beauty</t>
   </si>
 </sst>
 </file>
@@ -382,12 +388,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,6 +411,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -411,6 +421,9 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
